--- a/analyses/tables/soil_organics.xlsx
+++ b/analyses/tables/soil_organics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0B14DE41-0534-B643-8305-7DE75DB9C8B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9C8526-DF74-5541-B1F8-DDFB91B09038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="10580" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil_organics" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Df</t>
-  </si>
-  <si>
-    <t>Residuals</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>Elevation</t>
@@ -49,13 +43,19 @@
     <t>Soil CN</t>
   </si>
   <si>
-    <t>F</t>
+    <t>SWR</t>
+  </si>
+  <si>
+    <t>Chisq</t>
+  </si>
+  <si>
+    <t>Pr(&gt;Chisq)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -383,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -498,21 +498,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -560,11 +545,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,280 +904,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="C3" sqref="C3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4.6747492733267597</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.0609170544347801E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.53166936446447</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.46590586840137799</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.8533966284899002</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.9645356333455598E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.44836531885432401</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.50311226229127304</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.7182019826197998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.9209713585949696E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.13655740069441399</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.71172769496755295</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.49258975643878</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.22181507888365701</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.91084404314901801</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.33989056839272902</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>6.3630884911425003</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.7852020567767399E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.413764772422827</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.52671343137613602</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5.0653855574016804</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.47366791130908E-2</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.7661219704695696</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.7893438889241203E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.35906029529961597</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.555149728840446</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2.6070280894666098</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.120643299555641</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.8670405323431198E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.82705297907434305</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.38637476557616</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.251599649158325</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2.19624803858316</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.1525300308884</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="3"/>
+      <c r="C5" s="5">
+        <v>0.40421078043049602</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.52492260764130605</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.118113949781914</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.73108913406281695</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2.77139380168498</v>
+      </c>
+      <c r="H5" s="5">
+        <v>9.5962568775647697E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4.1849268449118002E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.83790736372285901</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="3"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analyses/tables/soil_organics.xlsx
+++ b/analyses/tables/soil_organics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9C8526-DF74-5541-B1F8-DDFB91B09038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554CFA31-7A9A-4B41-B00D-D8908AFCF44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6980" yWindow="4920" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil_organics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Df</t>
   </si>
@@ -46,10 +46,10 @@
     <t>SWR</t>
   </si>
   <si>
-    <t>Chisq</t>
+    <t>F value</t>
   </si>
   <si>
-    <t>Pr(&gt;Chisq)</t>
+    <t>Pr(&gt;F)</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -908,63 +908,82 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J5"/>
+      <selection activeCell="L6" sqref="L6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -972,32 +991,41 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>4.6747492733267597</v>
+        <v>6.94155590276785</v>
       </c>
       <c r="D3" s="5">
-        <v>3.0609170544347801E-2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.53166936446447</v>
+        <v>1.37766418243072E-2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>0.46590586840137799</v>
+        <v>0.35756340798521102</v>
       </c>
       <c r="G3" s="5">
-        <v>3.8533966284899002</v>
-      </c>
-      <c r="H3" s="5">
-        <v>4.9645356333455598E-2</v>
+        <v>0.55596884905989097</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3" s="5">
-        <v>0.44836531885432401</v>
+        <v>5.7079483483174096</v>
       </c>
       <c r="J3" s="5">
-        <v>0.50311226229127304</v>
+        <v>2.58936760329842E-2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.755513307733644</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.39049465896663899</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1008,32 +1036,41 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>2.7182019826197998</v>
+        <v>2.7182019826200401</v>
       </c>
       <c r="D4" s="5">
-        <v>9.9209713585949696E-2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.13655740069441399</v>
+        <v>0.110798794125155</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>0.71172769496755295</v>
+        <v>0.25956162041039199</v>
       </c>
       <c r="G4" s="5">
-        <v>1.49258975643878</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.22181507888365701</v>
+        <v>0.61549409377008901</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>0.91084404314901801</v>
+        <v>1.49258975643909</v>
       </c>
       <c r="J4" s="5">
-        <v>0.33989056839272902</v>
+        <v>0.23474518843320599</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>12.400324080444101</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.1858608442861099E-3</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1044,32 +1081,41 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>0.40421078043049602</v>
+        <v>0.40421078043050002</v>
       </c>
       <c r="D5" s="5">
-        <v>0.52492260764130605</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.118113949781914</v>
+        <v>0.53027512608080996</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>0.73108913406281695</v>
+        <v>1.15311321231708</v>
       </c>
       <c r="G5" s="5">
-        <v>2.77139380168498</v>
-      </c>
-      <c r="H5" s="5">
-        <v>9.5962568775647697E-2</v>
+        <v>0.29453587977649898</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>4.1849268449118002E-2</v>
+        <v>2.77139380168496</v>
       </c>
       <c r="J5" s="5">
-        <v>0.83790736372285901</v>
+        <v>0.110141735300711</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>12.980857957539101</v>
+      </c>
+      <c r="M5" s="5">
+        <v>9.4320950120856996E-4</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1078,15 +1124,18 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>36</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>

--- a/analyses/tables/soil_organics.xlsx
+++ b/analyses/tables/soil_organics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554CFA31-7A9A-4B41-B00D-D8908AFCF44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3661930F-F848-704E-837C-B57DA99E7F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="4920" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6980" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil_organics" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +195,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -543,13 +579,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -908,7 +952,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M6"/>
+      <selection activeCell="B3" sqref="B3:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,43 +991,45 @@
       <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -991,41 +1037,41 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>6.94155590276785</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.37766418243072E-2</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="6">
+        <v>4.6747492733267402</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3.9635689331650001E-2</v>
+      </c>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
-        <v>0.35756340798521102</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.55596884905989097</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="6">
+        <v>0.18966668341033899</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.66743719147230396</v>
+      </c>
+      <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
-        <v>5.7079483483174096</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2.58936760329842E-2</v>
-      </c>
-      <c r="K3">
+      <c r="I3" s="6">
+        <v>3.8533966284899202</v>
+      </c>
+      <c r="J3" s="8">
+        <v>6.2411616415752699E-2</v>
+      </c>
+      <c r="K3" s="5">
         <v>1</v>
       </c>
-      <c r="L3" s="5">
-        <v>0.755513307733644</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.39049465896663899</v>
+      <c r="L3" s="6">
+        <v>2.5025467455277099</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.12240944469033101</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1036,41 +1082,41 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
-        <v>2.7182019826200401</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.110798794125155</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="6">
+        <v>2.7182019826197998</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.11079879412517001</v>
+      </c>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
-        <v>0.25956162041039199</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.61549409377008901</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="6">
+        <v>0.25956162041047998</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.61549409377002895</v>
+      </c>
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
-        <v>1.49258975643909</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.23474518843320599</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="6">
+        <v>1.49258975643876</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.23474518843325501</v>
+      </c>
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="L4" s="5">
-        <v>12.400324080444101</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1.1858608442861099E-3</v>
+      <c r="L4" s="6">
+        <v>12.4003240804428</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1.1858608442867501E-3</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1081,40 +1127,40 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.40421078043050002</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.53027512608080996</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="6">
+        <v>0.40421078043050102</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.53027512608080896</v>
+      </c>
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>1.15311321231708</v>
       </c>
-      <c r="G5" s="5">
-        <v>0.29453587977649898</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="6">
+        <v>0.29453587977649798</v>
+      </c>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>2.77139380168496</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>0.110141735300711</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>12.980857957539101</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="7">
         <v>9.4320950120856996E-4</v>
       </c>
       <c r="O5" s="2"/>
@@ -1122,24 +1168,32 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6">
+    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
         <v>22</v>
       </c>
-      <c r="H6">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
         <v>22</v>
       </c>
-      <c r="K6">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10">
         <v>36</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="1"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="1"/>
